--- a/source/jade/templates/states/studentlistgen.xlsx
+++ b/source/jade/templates/states/studentlistgen.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="76">
   <si>
     <t>gisize</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>beltsize</t>
   </si>
   <si>
@@ -129,6 +123,135 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>Natick</t>
+  </si>
+  <si>
+    <t>Chicopee</t>
+  </si>
+  <si>
+    <t>Holliston</t>
+  </si>
+  <si>
+    <t>Marlborough</t>
+  </si>
+  <si>
+    <t>Mashpee</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Somerville</t>
+  </si>
+  <si>
+    <t>Walpole</t>
+  </si>
+  <si>
+    <t>Westborough</t>
+  </si>
+  <si>
+    <t>Williamstown</t>
+  </si>
+  <si>
+    <t>Wrentham/Norfolk</t>
+  </si>
+  <si>
+    <t>Cranston RI</t>
+  </si>
+  <si>
+    <t>Middletown RI</t>
+  </si>
+  <si>
+    <t>Syracuse NY</t>
+  </si>
+  <si>
+    <t>Antrim NH</t>
+  </si>
+  <si>
+    <t>Bennington NH</t>
+  </si>
+  <si>
+    <t>Richland NH</t>
+  </si>
+  <si>
+    <t>Concord NH</t>
+  </si>
+  <si>
+    <t>Biddeford ME</t>
+  </si>
+  <si>
+    <t>Barre VT</t>
+  </si>
+  <si>
+    <t>Ambler PA</t>
+  </si>
+  <si>
+    <t>Chalfont PA</t>
+  </si>
+  <si>
+    <t>Chester Springs PA</t>
+  </si>
+  <si>
+    <t>Enfield CT</t>
+  </si>
+  <si>
+    <t>Fairfield CT</t>
+  </si>
+  <si>
+    <t>Glastonbury CT</t>
+  </si>
+  <si>
+    <t>Newington CT</t>
+  </si>
+  <si>
+    <t>North Windham CT</t>
+  </si>
+  <si>
+    <t>Simsbury CT</t>
+  </si>
+  <si>
+    <t>Southington CT</t>
+  </si>
+  <si>
+    <t>Torrington CT</t>
+  </si>
+  <si>
+    <t>West Hartford CT</t>
+  </si>
+  <si>
+    <t>Windsor CT</t>
+  </si>
+  <si>
+    <t>Antioch IL</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Portland ME</t>
+  </si>
+  <si>
+    <t>Scarborough ME</t>
+  </si>
+  <si>
+    <t>Standish ME</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Double Zero</t>
+  </si>
+  <si>
+    <t>Triple Zero</t>
   </si>
 </sst>
 </file>
@@ -496,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -529,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="str">
         <f>A1&amp;B1&amp;""","""&amp;C1&amp;""","""&amp;D1&amp;""","&amp;E1&amp;""&amp;F1</f>
@@ -538,7 +661,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -553,16 +676,16 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G48" si="0">A2&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","&amp;E2&amp;""&amp;F2</f>
+        <f t="shared" ref="G2:G65" si="0">A2&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","&amp;E2&amp;""&amp;F2</f>
         <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","7","7",2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -577,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -586,7 +709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -601,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -610,7 +733,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -625,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -634,7 +757,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -649,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -658,7 +781,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -673,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -682,7 +805,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -697,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -706,82 +829,82 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","0","0",9);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","Zero","Zero",9);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","00","00",10);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","Double Zero","Double Zero",10);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","000","000",11);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("gisize","Triple Zero","Triple Zero",11);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -793,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -802,10 +925,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -817,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -826,10 +949,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -841,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -850,10 +973,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -865,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -874,10 +997,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -889,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -898,10 +1021,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -913,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -922,10 +1045,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -937,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -946,10 +1069,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -961,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -970,94 +1093,94 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","0","0",9);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","Zero","Zero",9);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","00","00",10);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","Double Zero","Double Zero",10);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","000","000",11);</v>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("beltsize","Triple Zero","Triple Zero",11);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -1066,22 +1189,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -1090,22 +1213,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -1114,22 +1237,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -1138,22 +1261,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -1162,22 +1285,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -1186,22 +1309,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -1210,22 +1333,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -1234,22 +1357,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -1258,22 +1381,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -1282,22 +1405,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -1306,22 +1429,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -1330,22 +1453,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -1354,22 +1477,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -1378,22 +1501,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -1402,22 +1525,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -1426,22 +1549,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -1450,22 +1573,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -1474,22 +1597,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -1498,22 +1621,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -1522,22 +1645,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -1546,22 +1669,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -1570,22 +1693,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -1594,22 +1717,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -1618,22 +1741,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -1642,26 +1765,962 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>8</v>
       </c>
       <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("Instructor Title","Judan Master Instructor","Judan Master Instructor",8);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Natick","Natick",1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
         <v>34</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("Instructor Title","Judan Master Instructor","Judan Master Instructor",8);</v>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Chicopee","Chicopee",2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Holliston","Holliston",3);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Marlborough","Marlborough",4);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Mashpee","Mashpee",5);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Palmer","Palmer",6);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Shrewsbury","Shrewsbury",7);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Somerville","Somerville",8);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Walpole","Walpole",9);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Westborough","Westborough",10);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Williamstown","Williamstown",11);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Wrentham/Norfolk","Wrentham/Norfolk",12);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Cranston RI","Cranston RI",13);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Middletown RI","Middletown RI",14);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Syracuse NY","Syracuse NY",15);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Antrim NH","Antrim NH",16);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Bennington NH","Bennington NH",17);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G87" si="1">A66&amp;B66&amp;""","""&amp;C66&amp;""","""&amp;D66&amp;""","&amp;E66&amp;""&amp;F66</f>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Richland NH","Richland NH",18);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Concord NH","Concord NH",19);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Biddeford ME","Biddeford ME",20);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Portland ME","Portland ME",21);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Scarborough ME","Scarborough ME",22);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Standish ME","Standish ME",23);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Barre VT","Barre VT",24);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Ambler PA","Ambler PA",25);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Chalfont PA","Chalfont PA",26);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Chester Springs PA","Chester Springs PA",27);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Enfield CT","Enfield CT",28);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Fairfield CT","Fairfield CT",29);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Glastonbury CT","Glastonbury CT",30);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Newington CT","Newington CT",31);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","North Windham CT","North Windham CT",32);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Simsbury CT","Simsbury CT",33);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Southington CT","Southington CT",34);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Torrington CT","Torrington CT",35);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","West Hartford CT","West Hartford CT",36);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Windsor CT","Windsor CT",37);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Antioch IL","Antioch IL",38);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO studentlist (listtype,listkey,listvalue,listorder) VALUES("School","Other","Other",39);</v>
       </c>
     </row>
   </sheetData>
